--- a/jjj.xlsx
+++ b/jjj.xlsx
@@ -338,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B5:B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -354,6 +354,14 @@
         <v>555555</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>777</v>
+      </c>
+      <c r="B2">
+        <v>8888</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jjj.xlsx
+++ b/jjj.xlsx
@@ -16,6 +16,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>jjjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -362,6 +375,14 @@
         <v>8888</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
